--- a/ResultadoEleicoesDistritos/AVEIRO_VAGOS.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_VAGOS.xlsx
@@ -597,64 +597,64 @@
         <v>6701</v>
       </c>
       <c r="H2" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="I2" t="n">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="J2" t="n">
-        <v>2819</v>
+        <v>2698</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L2" t="n">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="M2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="T2" t="n">
-        <v>512</v>
+        <v>460</v>
       </c>
       <c r="U2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V2" t="n">
-        <v>4202</v>
+        <v>4378</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>4226</v>
+        <v>4272</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
